--- a/data/trans_bre/P07_R2-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P07_R2-Provincia-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>-9.177376645865376</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>-8.874098675221587</v>
+        <v>-8.874098675221598</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>-0.02241556499758289</v>
@@ -649,7 +649,7 @@
         <v>-0.121287485788464</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>-0.1160461145189886</v>
+        <v>-0.1160461145189887</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-8.98168756235097</v>
+        <v>-8.952563542794644</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-23.80480568206933</v>
+        <v>-23.52466989254663</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-16.65017582412769</v>
+        <v>-17.05758215070378</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-15.10103959311611</v>
+        <v>-15.25510658338825</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.1018012725882077</v>
+        <v>-0.1063496039052192</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.3050512674267951</v>
+        <v>-0.3006023086213006</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.2091170995665545</v>
+        <v>-0.2176957328163796</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.188619246445083</v>
+        <v>-0.1936015143459217</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>4.300218007339629</v>
+        <v>4.756365079513392</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-7.476288143727785</v>
+        <v>-7.22707515343725</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-1.316707469011715</v>
+        <v>-1.042660514381511</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>-2.650786887524182</v>
+        <v>-3.315877327680705</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.05382895887072184</v>
+        <v>0.05896570727512668</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>-0.1074338662243154</v>
+        <v>-0.1001938586238113</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>-0.0196691445655873</v>
+        <v>-0.01450660084163407</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>-0.03802011445385034</v>
+        <v>-0.04572711421832269</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>-7.862900507070991</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>-3.744586008923068</v>
+        <v>-3.744586008923079</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>-0.1788275915609694</v>
@@ -749,7 +749,7 @@
         <v>-0.09202958574507525</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>-0.04393213334698992</v>
+        <v>-0.04393213334699005</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-19.92666142512472</v>
+        <v>-20.16616704049527</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-19.51962918583726</v>
+        <v>-18.91287577576493</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-13.27268243439514</v>
+        <v>-13.26926053290503</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-7.823058859993345</v>
+        <v>-7.997343314765383</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.2358743110904367</v>
+        <v>-0.239806472053234</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.2320988474862818</v>
+        <v>-0.2243796515459732</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.1495839373087302</v>
+        <v>-0.1505719843237576</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.09001099320293694</v>
+        <v>-0.09139297607690526</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>-9.307209841939793</v>
+        <v>-9.456640722648951</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>-8.884463490381908</v>
+        <v>-8.337831651166187</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>-2.963658216582955</v>
+        <v>-3.011142242338218</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.6749795781331507</v>
+        <v>0.6903266862072867</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>-0.1138791703090335</v>
+        <v>-0.1170423582383065</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.109694577886515</v>
+        <v>-0.1034914912454266</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>-0.03582171890979996</v>
+        <v>-0.03594316584622635</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.007132973061814566</v>
+        <v>0.008227543814110292</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>-3.711421467440756</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>-2.452496155694894</v>
+        <v>-2.452496155694905</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>-0.2101144334789433</v>
@@ -849,7 +849,7 @@
         <v>-0.04263741224621125</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>-0.03050238770022206</v>
+        <v>-0.0305023877002222</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-24.48033824474869</v>
+        <v>-24.15809280404277</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-13.58661792002533</v>
+        <v>-13.67163293788393</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-9.336182682841223</v>
+        <v>-9.365439577353067</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-7.364938002188581</v>
+        <v>-7.670608040520935</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.2819646187061366</v>
+        <v>-0.2768130960984359</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.1561877541247312</v>
+        <v>-0.1566255654631766</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.1038504519670441</v>
+        <v>-0.1052560814935556</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.08868767722449136</v>
+        <v>-0.0926360653455863</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-10.9773365287886</v>
+        <v>-11.20320881521896</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-1.045079149449474</v>
+        <v>-0.842431453889909</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2.112070501906061</v>
+        <v>1.905598135887471</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>2.814065787969242</v>
+        <v>3.098911459029616</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>-0.1343162344679493</v>
+        <v>-0.1405322965188574</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>-0.01283365907456796</v>
+        <v>-0.01066246966502804</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.02511106901925443</v>
+        <v>0.02235626914569473</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.03634803493093624</v>
+        <v>0.03940518405858938</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>-12.07845455218056</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>-6.757844873492869</v>
+        <v>-6.757844873492846</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>-0.1823343557501385</v>
@@ -949,7 +949,7 @@
         <v>-0.1486318406379477</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>-0.08351161860353873</v>
+        <v>-0.08351161860353848</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-21.80277872375476</v>
+        <v>-21.65828710251039</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-20.65764898673115</v>
+        <v>-21.40182398748771</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-18.4736977906495</v>
+        <v>-18.48903032181472</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-13.11100086182726</v>
+        <v>-13.37576361167213</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.2405387821640789</v>
+        <v>-0.2371896772310458</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.2484669358046384</v>
+        <v>-0.2575264273524099</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.2208143518880002</v>
+        <v>-0.2238071883878413</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.1553061489114697</v>
+        <v>-0.1572526730845116</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>-10.4603936852263</v>
+        <v>-10.37167437101512</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>-7.185365418580409</v>
+        <v>-7.949023851577268</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>-5.581563244295476</v>
+        <v>-5.808157082035695</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>-0.7319118850847702</v>
+        <v>-0.9945379145532853</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>-0.1199413820762988</v>
+        <v>-0.1202703722443921</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.09317922592548641</v>
+        <v>-0.1025259965515573</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>-0.07017255945679701</v>
+        <v>-0.07549712717485549</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.009856791352981604</v>
+        <v>-0.01250850186327448</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>-5.707779241724353</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>-8.817407123352428</v>
+        <v>-8.817407123352449</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>-0.1862713747208047</v>
@@ -1049,7 +1049,7 @@
         <v>-0.07229131502211732</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>-0.09738567645191416</v>
+        <v>-0.09738567645191439</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-23.9984316157038</v>
+        <v>-23.87143459282664</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-22.69025986149964</v>
+        <v>-23.14008050072689</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-13.39988109401323</v>
+        <v>-13.65210161524862</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-13.05761869831352</v>
+        <v>-13.67577829877119</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.2910558329341704</v>
+        <v>-0.2912062735098583</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.2620023327305597</v>
+        <v>-0.2669944603550258</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.1640540863133204</v>
+        <v>-0.165853527581277</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.1418754575129486</v>
+        <v>-0.1493551480670138</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-6.320619915764706</v>
+        <v>-6.265379532105669</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-5.338875833465955</v>
+        <v>-6.216690738426287</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>2.740076463572028</v>
+        <v>3.763638825141353</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>-3.930412083305697</v>
+        <v>-4.38925308292578</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>-0.08460976110242306</v>
+        <v>-0.0817161370247618</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>-0.07075967570704782</v>
+        <v>-0.07662108376091653</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.03740174765573837</v>
+        <v>0.04885334542886841</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>-0.0449659265720966</v>
+        <v>-0.04996185727412169</v>
       </c>
     </row>
     <row r="19">
@@ -1137,7 +1137,7 @@
         <v>-6.384487103118397</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>-4.92823193023214</v>
+        <v>-4.928231930232185</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>-0.2308235792211114</v>
@@ -1149,7 +1149,7 @@
         <v>-0.07733422572851825</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>-0.06336459127767193</v>
+        <v>-0.06336459127767249</v>
       </c>
     </row>
     <row r="20">
@@ -1160,28 +1160,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-26.80349144295455</v>
+        <v>-27.53832040670626</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-14.5366698588197</v>
+        <v>-14.66653915101677</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-13.05438690270071</v>
+        <v>-13.95031035803016</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>-10.41172732013873</v>
+        <v>-10.64735172963746</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.3002395310757111</v>
+        <v>-0.3062387669889761</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.1725791190078952</v>
+        <v>-0.1755288886960497</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.1560501493978937</v>
+        <v>-0.1626341008828208</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.1300301652418429</v>
+        <v>-0.1321483307174097</v>
       </c>
     </row>
     <row r="21">
@@ -1192,28 +1192,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>-12.8582284511365</v>
+        <v>-12.9935231835653</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>-0.7379949074712476</v>
+        <v>-0.8191973929649371</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>1.044331153303822</v>
+        <v>1.141540339377943</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.9091244206348419</v>
+        <v>0.2308241959951785</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>-0.1518508557462301</v>
+        <v>-0.1558115429001497</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>-0.009578975664628843</v>
+        <v>-0.01071615224949957</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.01232390973716243</v>
+        <v>0.01418478747668585</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.01238599791477944</v>
+        <v>0.003152446556899351</v>
       </c>
     </row>
     <row r="22">
@@ -1237,7 +1237,7 @@
         <v>-9.628677100095873</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>-9.225588449955847</v>
+        <v>-9.225588449955824</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>-0.1676588382321895</v>
@@ -1249,7 +1249,7 @@
         <v>-0.1122342711453216</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>-0.1084212319121406</v>
+        <v>-0.1084212319121403</v>
       </c>
     </row>
     <row r="23">
@@ -1260,28 +1260,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-19.05629868250126</v>
+        <v>-18.95133331845375</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-12.88106391973335</v>
+        <v>-12.69245895994347</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-14.47600018865423</v>
+        <v>-14.01272610377101</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-12.84963248523096</v>
+        <v>-12.73403629714768</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>-0.2168776125548084</v>
+        <v>-0.2168725650814097</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>-0.1487040208667516</v>
+        <v>-0.1472401553197017</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>-0.1650306464430244</v>
+        <v>-0.1625154722821946</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>-0.1481293343035684</v>
+        <v>-0.1481166198171518</v>
       </c>
     </row>
     <row r="24">
@@ -1292,28 +1292,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>-10.02081174152896</v>
+        <v>-10.0802226353173</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-3.613843332474736</v>
+        <v>-4.191104449430841</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-5.401304627894047</v>
+        <v>-4.925887006672239</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>-5.466938529442623</v>
+        <v>-4.923091890810039</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>-0.1194151189623046</v>
+        <v>-0.1175580386891516</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>-0.04442850989488688</v>
+        <v>-0.05111729655310923</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>-0.06404728078957311</v>
+        <v>-0.06050258003001855</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>-0.06568419013061871</v>
+        <v>-0.06008501457053669</v>
       </c>
     </row>
     <row r="25">
@@ -1337,7 +1337,7 @@
         <v>-8.371215423307687</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>-8.693464469881441</v>
+        <v>-8.693464469881418</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>-0.0948033561950878</v>
@@ -1349,7 +1349,7 @@
         <v>-0.09519737101087178</v>
       </c>
       <c r="J25" s="6" t="n">
-        <v>-0.1053746663949367</v>
+        <v>-0.1053746663949365</v>
       </c>
     </row>
     <row r="26">
@@ -1360,28 +1360,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>-11.87467165187942</v>
+        <v>-12.04538085608579</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>-9.858687823638364</v>
+        <v>-9.759597665075441</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>-11.92659195043164</v>
+        <v>-12.23313817748266</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>-12.3114880619566</v>
+        <v>-12.67520225999668</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.1420545463223621</v>
+        <v>-0.1445865823202784</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.1106437582413583</v>
+        <v>-0.1091496882820149</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.1334530214108977</v>
+        <v>-0.1370926066474892</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.1473033029808104</v>
+        <v>-0.1500777243091198</v>
       </c>
     </row>
     <row r="27">
@@ -1392,28 +1392,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>-3.604645284910871</v>
+        <v>-3.431562420981186</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>-2.322559459673907</v>
+        <v>-2.414828257146409</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>-4.590106900859854</v>
+        <v>-4.739359143592556</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>-4.785051194134301</v>
+        <v>-5.067041011365049</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>-0.04430964669005908</v>
+        <v>-0.04279116441946074</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>-0.02691034610703972</v>
+        <v>-0.02824455130307004</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>-0.05327867833070539</v>
+        <v>-0.055164956128332</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>-0.06023459521434998</v>
+        <v>-0.06295210802213923</v>
       </c>
     </row>
     <row r="28">
@@ -1437,7 +1437,7 @@
         <v>-8.182353356095151</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>-6.96413736783218</v>
+        <v>-6.964137367832191</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>-0.1540315089148565</v>
@@ -1449,7 +1449,7 @@
         <v>-0.09705725072678237</v>
       </c>
       <c r="J28" s="6" t="n">
-        <v>-0.08426432094746684</v>
+        <v>-0.08426432094746697</v>
       </c>
     </row>
     <row r="29">
@@ -1460,28 +1460,28 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-14.87898818551388</v>
+        <v>-15.20256152123598</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-12.07900562218968</v>
+        <v>-12.0332238058413</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-10.16616407073085</v>
+        <v>-10.08648549481464</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-8.487459508352959</v>
+        <v>-8.745911252242342</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>-0.1745541370753965</v>
+        <v>-0.1780882244553276</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>-0.1429494407417076</v>
+        <v>-0.1435700593115226</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>-0.1189785501997134</v>
+        <v>-0.1187732877760113</v>
       </c>
       <c r="J29" s="6" t="n">
-        <v>-0.1018277331425197</v>
+        <v>-0.1044652728403583</v>
       </c>
     </row>
     <row r="30">
@@ -1492,28 +1492,28 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>-10.9779696096485</v>
+        <v>-11.08851145908402</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>-8.011441498323336</v>
+        <v>-8.267382033490584</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>-6.152791713852589</v>
+        <v>-6.222537492970813</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>-5.119903582849532</v>
+        <v>-5.155744872896757</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>-0.1305211691896555</v>
+        <v>-0.1324333814940563</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>-0.09701810957738069</v>
+        <v>-0.09995844904498496</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>-0.07322180264044766</v>
+        <v>-0.07455849614754972</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>-0.06284841027807943</v>
+        <v>-0.06254364100451119</v>
       </c>
     </row>
     <row r="31">
